--- a/2des/bcd/aula03/exercicios/normalizados/exercicio4_duplicatas.xlsx
+++ b/2des/bcd/aula03/exercicios/normalizados/exercicio4_duplicatas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\normalizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76A459-91B2-413A-B703-10237668D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7584CE-9354-4BE8-B24D-C7FFF2719A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68435E5F-DC9A-48F7-82EF-04866506E219}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{68435E5F-DC9A-48F7-82EF-04866506E219}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="57">
   <si>
     <t>cod_cli</t>
   </si>
@@ -263,12 +263,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -586,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E2111-E6AA-453A-9063-B99312BF6ED5}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2167,24 +2168,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5682C2D-CFB0-40A9-824C-3DA4EFF056CA}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2192,45 +2192,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2238,22 +2232,19 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2261,22 +2252,19 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2284,22 +2272,19 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2307,22 +2292,19 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2330,22 +2312,19 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2353,22 +2332,19 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2376,22 +2352,19 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2399,18 +2372,15 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2652,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C85E19-15C3-4773-A9D6-ACA33FF07857}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
